--- a/data/Flesch-Reading-Ease-Score-deutsch.xlsx
+++ b/data/Flesch-Reading-Ease-Score-deutsch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\teodo\Documents\R\language-gate-master\content\post\2021-08-19-lesbarkeitsindices-reading-indices\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBBF0BA9-AD1E-4B02-BB47-E6AAEB808A2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AF5576C-ECB6-4224-8FD6-2D6F23E5A054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11775" yWindow="-14415" windowWidth="17280" windowHeight="12075" xr2:uid="{B14A3D29-647A-4F74-9BEE-42A276BC65C9}"/>
   </bookViews>
@@ -242,13 +242,13 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -567,13 +567,13 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.109375" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="1" max="1" width="24.5546875" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
     <col min="3" max="3" width="20.77734375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -581,10 +581,10 @@
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
     </row>
